--- a/config/forms/app/routine.xlsx
+++ b/config/forms/app/routine.xlsx
@@ -256,7 +256,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t xml:space="preserve">Start Routine Visit </t>
+    <t xml:space="preserve"> Routine Visit </t>
   </si>
   <si>
     <t>pages</t>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="C2" s="16" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-08-02_17-50</v>
+        <v>2022-11-03_09-23</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>80</v>

--- a/config/forms/app/routine.xlsx
+++ b/config/forms/app/routine.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
   <si>
     <t>type</t>
   </si>
@@ -143,12 +143,6 @@
 </t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>Display any open Tasks</t>
-  </si>
-  <si>
     <t>select_one yes_no</t>
   </si>
   <si>
@@ -158,17 +152,6 @@
     <t>Have you reviewed the Tasks that are due for this client?</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>display_dates</t>
-  </si>
-  <si>
-    <t>Display dates
-Level of Care Assessment Form:
-SRQ:</t>
-  </si>
-  <si>
     <t>select_one status</t>
   </si>
   <si>
@@ -256,7 +239,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t xml:space="preserve"> Routine Visit </t>
+    <t>Form - In-person Visit</t>
   </si>
   <si>
     <t>pages</t>
@@ -1443,14 +1426,14 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="11" t="s">
         <v>42</v>
       </c>
+      <c r="B24" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="C24" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1478,13 +1461,13 @@
     </row>
     <row r="25">
       <c r="A25" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1512,7 +1495,7 @@
     </row>
     <row r="26">
       <c r="A26" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>48</v>
@@ -1546,13 +1529,13 @@
     </row>
     <row r="27">
       <c r="A27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1579,15 +1562,11 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1613,15 +1592,9 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1646,64 +1619,6 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1721,7 +1636,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1755,68 +1670,68 @@
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="C6" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1839,48 +1754,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="16" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-03_09-23</v>
+        <v>2023-04-07_17-23</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H2" s="2"/>
     </row>

--- a/config/forms/app/routine.xlsx
+++ b/config/forms/app/routine.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="77">
   <si>
     <t>type</t>
   </si>
@@ -124,6 +124,27 @@
   </si>
   <si>
     <t>routine</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>in_person_date</t>
+  </si>
+  <si>
+    <t>Date of In-Person Visit</t>
+  </si>
+  <si>
+    <t>select_one status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>What’s the client’s current clinical status?</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
   </si>
   <si>
     <t>client</t>
@@ -133,34 +154,19 @@
 </t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>reminder</t>
   </si>
   <si>
-    <t xml:space="preserve">Have you reviewed the most recent SMS Messages with client?
+    <t xml:space="preserve">Have you reviewed the most recent SMS Messages with the client?
 </t>
   </si>
   <si>
-    <t>select_one yes_no</t>
-  </si>
-  <si>
     <t>reviewed</t>
   </si>
   <si>
     <t>Have you reviewed the Tasks that are due for this client?</t>
   </si>
   <si>
-    <t>select_one status</t>
-  </si>
-  <si>
-    <t>client_status</t>
-  </si>
-  <si>
-    <t>What is the client’s current status?</t>
-  </si>
-  <si>
     <t>recent</t>
   </si>
   <si>
@@ -191,25 +197,16 @@
     <t>No</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>stable</t>
-  </si>
-  <si>
-    <t>Stable</t>
-  </si>
-  <si>
-    <t>unstable</t>
-  </si>
-  <si>
-    <t>Unstable</t>
-  </si>
-  <si>
-    <t>new in care</t>
-  </si>
-  <si>
-    <t>New in care</t>
+    <t>suppressed</t>
+  </si>
+  <si>
+    <t>Suppressed</t>
+  </si>
+  <si>
+    <t>unsuppressed</t>
+  </si>
+  <si>
+    <t>Unsuppressed</t>
   </si>
   <si>
     <t>unknown</t>
@@ -1358,14 +1355,14 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>37</v>
       </c>
+      <c r="B22" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="C22" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1392,16 +1389,16 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="10" t="s">
         <v>40</v>
       </c>
+      <c r="B23" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="C23" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1427,13 +1424,13 @@
     </row>
     <row r="24">
       <c r="A24" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1461,15 +1458,15 @@
     </row>
     <row r="25">
       <c r="A25" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1495,7 +1492,7 @@
     </row>
     <row r="26">
       <c r="A26" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>48</v>
@@ -1529,7 +1526,7 @@
     </row>
     <row r="27">
       <c r="A27" s="11" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>50</v>
@@ -1562,11 +1559,15 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1592,7 +1593,9 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1619,6 +1622,34 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
+    <row r="30">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1636,7 +1667,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1670,68 +1701,57 @@
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1754,48 +1774,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>73</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="16" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-04-07_17-23</v>
+        <v>2023-07-31_13-56</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>76</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H2" s="2"/>
     </row>

--- a/config/forms/app/routine.xlsx
+++ b/config/forms/app/routine.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="114">
   <si>
     <t>type</t>
   </si>
@@ -90,12 +90,21 @@
     <t>patient_id</t>
   </si>
   <si>
+    <t>name1</t>
+  </si>
+  <si>
     <t>date_of_birth</t>
   </si>
   <si>
     <t>sex</t>
   </si>
   <si>
+    <t>tsis</t>
+  </si>
+  <si>
+    <t>genda</t>
+  </si>
+  <si>
     <t>parent</t>
   </si>
   <si>
@@ -123,7 +132,110 @@
     <t>../inputs/contact/name</t>
   </si>
   <si>
+    <t>patient_name1</t>
+  </si>
+  <si>
+    <t>../inputs/contact/name1</t>
+  </si>
+  <si>
+    <t>patient_tsis</t>
+  </si>
+  <si>
+    <t>../inputs/contact/tsis</t>
+  </si>
+  <si>
+    <t>patient_genda</t>
+  </si>
+  <si>
+    <t>../inputs/contact/genda</t>
+  </si>
+  <si>
+    <t>patient_date_of_birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of birth </t>
+  </si>
+  <si>
+    <t>../inputs/contact/date_of_birth</t>
+  </si>
+  <si>
+    <t>date_of_birth_ctx</t>
+  </si>
+  <si>
+    <t>if(instance('contact-summary')/context/patient_date_of_birth != '', instance('contact-summary')/context/patient_date_of_birth, .)</t>
+  </si>
+  <si>
+    <t>aka_ctx</t>
+  </si>
+  <si>
+    <t>if(instance('contact-summary')/context/patient_aka != '', instance('contact-summary')/context/patient_aka, .)</t>
+  </si>
+  <si>
+    <t>fast_name_ctx</t>
+  </si>
+  <si>
+    <t>if(instance('contact-summary')/context/fstname != '', instance('contact-summary')/context/fstname, .)</t>
+  </si>
+  <si>
+    <t>last_name_ctx</t>
+  </si>
+  <si>
+    <t>if(instance('contact-summary')/context/lstname != '', instance('contact-summary')/context/lstname, .)</t>
+  </si>
+  <si>
+    <t>tsis_ctx</t>
+  </si>
+  <si>
+    <t>if(instance('contact-summary')/context/patient_tsis != '', instance('contact-summary')/context/patient_tsis, .)</t>
+  </si>
+  <si>
+    <t>yr_date_of_birth_ctx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int(int(format-date(today(), "%Y") - format-date(${date_of_birth_ctx}, "%Y")) )
+</t>
+  </si>
+  <si>
+    <t>gender_ctx</t>
+  </si>
+  <si>
+    <t>if(instance('contact-summary')/context/patient_genda != '', instance('contact-summary')/context/patient_genda, .)</t>
+  </si>
+  <si>
     <t>routine</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;i style=”background-color: yellow;”&gt;**${fast_name_ctx}  ${last_name_ctx}**&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>nick</t>
+  </si>
+  <si>
+    <t>Nickname: **${aka_ctx}**</t>
+  </si>
+  <si>
+    <t>age_n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age: **${yr_date_of_birth_ctx} yr**  </t>
+  </si>
+  <si>
+    <t>gender_n</t>
+  </si>
+  <si>
+    <t>Gender Identity: **${gender_ctx}**</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>TSIS: **${tsis_ctx}**</t>
   </si>
   <si>
     <t>date</t>
@@ -331,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -359,11 +471,23 @@
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -611,7 +735,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="20.25"/>
+    <col customWidth="1" min="2" max="2" width="22.25"/>
     <col customWidth="1" min="3" max="3" width="64.13"/>
+    <col customWidth="1" min="7" max="7" width="49.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -915,13 +1041,13 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2"/>
@@ -987,17 +1113,19 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1021,17 +1149,19 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1055,19 +1185,17 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1091,19 +1219,17 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>1</v>
+      <c r="A14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1128,10 +1254,14 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1157,13 +1287,19 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1187,13 +1323,19 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1218,7 +1360,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -1248,20 +1390,14 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1284,20 +1420,14 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1319,19 +1449,13 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1355,19 +1479,21 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>39</v>
+      <c r="A22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1389,19 +1515,21 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>42</v>
+      <c r="A23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1423,19 +1551,21 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>45</v>
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1457,19 +1587,21 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="s">
-        <v>43</v>
+      <c r="A25" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1491,19 +1623,21 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>49</v>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1525,19 +1659,21 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>51</v>
+      <c r="A27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1559,19 +1695,21 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>53</v>
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="G28" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1594,14 +1732,20 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1623,13 +1767,21 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="G30" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1650,6 +1802,652 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1667,7 +2465,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1700,58 +2498,58 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>57</v>
+      <c r="A2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>59</v>
+      <c r="A3" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>61</v>
+      <c r="A4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>63</v>
+      <c r="A5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>65</v>
+      <c r="A6" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1774,48 +2572,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>72</v>
+        <v>103</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="16" t="str">
+      <c r="A2" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="20" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-07-31_13-56</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17" t="s">
-        <v>76</v>
+        <v>2023-07-31_17-47</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="H2" s="2"/>
     </row>

--- a/config/forms/app/routine.xlsx
+++ b/config/forms/app/routine.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="117">
   <si>
     <t>type</t>
   </si>
@@ -205,13 +205,16 @@
     <t>routine</t>
   </si>
   <si>
+    <t>field-list summary</t>
+  </si>
+  <si>
     <t>note</t>
   </si>
   <si>
     <t>first_name</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;i style=”background-color: yellow;”&gt;**${fast_name_ctx}  ${last_name_ctx}**&lt;/i&gt;</t>
+    <t xml:space="preserve"> &lt;i style=”background-color: yellow;”&gt;**${fast_name_ctx}**&lt;/i&gt;</t>
   </si>
   <si>
     <t>nick</t>
@@ -236,6 +239,12 @@
   </si>
   <si>
     <t>TSIS: **${tsis_ctx}**</t>
+  </si>
+  <si>
+    <t>n_special_instruction_title</t>
+  </si>
+  <si>
+    <t>h1 yellow</t>
   </si>
   <si>
     <t>date</t>
@@ -364,7 +373,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -393,6 +402,16 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="8.0"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -403,7 +422,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,6 +439,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
         <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -443,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -487,12 +512,21 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -501,13 +535,13 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -787,6 +821,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -825,6 +860,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
@@ -861,6 +897,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
@@ -897,6 +934,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
@@ -931,6 +969,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
@@ -967,6 +1006,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
@@ -1003,6 +1043,7 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
@@ -1039,6 +1080,7 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -1075,6 +1117,7 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
@@ -1111,6 +1154,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
@@ -1147,6 +1191,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -1183,6 +1228,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -1217,6 +1263,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
@@ -1251,6 +1298,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
@@ -1285,6 +1333,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
@@ -1321,6 +1370,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
@@ -1357,6 +1407,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
@@ -1387,6 +1438,7 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
@@ -1417,6 +1469,7 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
@@ -1447,6 +1500,7 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
@@ -1477,6 +1531,7 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
@@ -1513,6 +1568,7 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
@@ -1549,6 +1605,7 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -1585,6 +1642,7 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -1621,6 +1679,7 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -1657,6 +1716,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -1693,6 +1753,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -1729,6 +1790,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -1765,6 +1827,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -1801,6 +1864,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -1837,6 +1901,7 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -1873,6 +1938,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -1909,6 +1975,7 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -1945,6 +2012,7 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
@@ -1957,8 +2025,8 @@
         <v>12</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>14</v>
+      <c r="E35" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1981,16 +2049,17 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="15" t="s">
         <v>65</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2015,16 +2084,17 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2049,16 +2119,17 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2083,16 +2154,17 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2117,16 +2189,17 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2151,40 +2224,44 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="13" t="s">
+      <c r="A41" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
     </row>
     <row r="42">
       <c r="A42" s="13" t="s">
@@ -2193,7 +2270,7 @@
       <c r="B42" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D42" s="2"/>
@@ -2219,15 +2296,16 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="14" t="s">
         <v>82</v>
       </c>
       <c r="D43" s="2"/>
@@ -2253,18 +2331,19 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="A44" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="12"/>
+      <c r="C44" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2287,18 +2366,19 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="15" t="s">
+      <c r="A45" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="C45" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="12"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2321,16 +2401,17 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="15" t="s">
+      <c r="A46" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="14" t="s">
         <v>88</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2355,16 +2436,17 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="15" t="s">
+      <c r="A47" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>90</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -2389,13 +2471,18 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="A48" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -2419,9 +2506,12 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="2"/>
+      <c r="A49" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2447,8 +2537,43 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
     </row>
   </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="D41">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2465,7 +2590,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2498,58 +2623,58 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>94</v>
+      <c r="A2" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>96</v>
+      <c r="B3" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>98</v>
+      <c r="A4" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>100</v>
+      <c r="A5" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>102</v>
+      <c r="A6" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2572,48 +2697,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="B1" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="C1" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>109</v>
       </c>
+      <c r="E1" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>112</v>
+      </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="20" t="str">
+      <c r="C2" s="23" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-07-31_17-47</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21" t="s">
-        <v>113</v>
+        <v>2023-08-03_21-35</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="H2" s="2"/>
     </row>

--- a/config/forms/app/routine.xlsx
+++ b/config/forms/app/routine.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="113">
   <si>
     <t>type</t>
   </si>
@@ -217,22 +217,10 @@
     <t xml:space="preserve"> &lt;i style=”background-color: yellow;”&gt;**${fast_name_ctx}**&lt;/i&gt;</t>
   </si>
   <si>
-    <t>nick</t>
-  </si>
-  <si>
-    <t>Nickname: **${aka_ctx}**</t>
-  </si>
-  <si>
     <t>age_n</t>
   </si>
   <si>
     <t xml:space="preserve">Age: **${yr_date_of_birth_ctx} yr**  </t>
-  </si>
-  <si>
-    <t>gender_n</t>
-  </si>
-  <si>
-    <t>Gender Identity: **${gender_ctx}**</t>
   </si>
   <si>
     <t>dob</t>
@@ -2157,49 +2145,51 @@
       <c r="AA38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="15" t="s">
+      <c r="A40" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="13" t="s">
         <v>74</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2227,51 +2217,49 @@
       <c r="AA40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="18" t="s">
+      <c r="A41" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
-      <c r="AA41" s="12"/>
+      <c r="B41" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>78</v>
+      <c r="A42" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2299,16 +2287,16 @@
       <c r="AA42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>81</v>
+      <c r="A43" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="D43" s="12"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2335,7 +2323,7 @@
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>84</v>
@@ -2370,15 +2358,15 @@
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>86</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="12"/>
+      <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2405,7 +2393,7 @@
     </row>
     <row r="46">
       <c r="A46" s="14" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>88</v>
@@ -2439,15 +2427,11 @@
       <c r="AA46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="A47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -2474,15 +2458,9 @@
       <c r="AA47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -2508,69 +2486,9 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
-    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D41">
+    <dataValidation type="list" allowBlank="1" sqref="D39">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2590,7 +2508,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2624,57 +2542,57 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2697,48 +2615,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>108</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>112</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="23" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-08-03_21-35</v>
+        <v>2023-09-21_09-33</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H2" s="2"/>
     </row>

--- a/config/forms/app/routine.xlsx
+++ b/config/forms/app/routine.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="114">
   <si>
     <t>type</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>appearance</t>
+  </si>
+  <si>
+    <t>instance::tag</t>
   </si>
   <si>
     <t>required</t>
@@ -266,7 +269,7 @@
     <t>reminder</t>
   </si>
   <si>
-    <t xml:space="preserve">Have you reviewed the most recent SMS Messages with the client?
+    <t xml:space="preserve">Have you reviewed the most recent SMS Messages with the client?bbbbbb
 </t>
   </si>
   <si>
@@ -377,6 +380,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -403,11 +411,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -466,19 +469,22 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -505,16 +511,16 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -523,13 +529,10 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -759,7 +762,7 @@
     <col customWidth="1" min="1" max="1" width="20.25"/>
     <col customWidth="1" min="2" max="2" width="22.25"/>
     <col customWidth="1" min="3" max="3" width="64.13"/>
-    <col customWidth="1" min="7" max="7" width="49.63"/>
+    <col customWidth="1" min="8" max="8" width="49.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -778,22 +781,24 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -810,22 +815,23 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -849,20 +855,21 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -886,20 +893,21 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -923,16 +931,17 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -958,20 +967,21 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -995,20 +1005,21 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1032,20 +1043,21 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1069,20 +1081,21 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1106,20 +1119,21 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1143,20 +1157,21 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
+      <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1180,20 +1195,21 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1217,16 +1233,17 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1252,16 +1269,17 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1287,16 +1305,17 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
+      <c r="A15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1322,20 +1341,21 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1359,20 +1379,21 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>12</v>
+      <c r="C17" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1396,13 +1417,14 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1427,13 +1449,14 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1458,13 +1481,14 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1489,13 +1513,14 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1520,24 +1545,25 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>34</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1557,24 +1583,25 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="A23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>37</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1594,24 +1621,27 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1631,24 +1661,27 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1668,24 +1701,27 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1705,24 +1741,27 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1742,24 +1781,27 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1779,24 +1821,27 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -1816,24 +1861,27 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -1853,24 +1901,27 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1890,24 +1941,27 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -1927,24 +1981,27 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -1964,24 +2021,27 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -2001,22 +2061,23 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>62</v>
+      <c r="A35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="2"/>
+      <c r="E35" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="16"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -2038,20 +2099,23 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="B36" s="16" t="s">
         <v>66</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -2073,20 +2137,23 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -2108,20 +2175,23 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -2143,53 +2213,57 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>71</v>
+      <c r="A39" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
     </row>
     <row r="40">
-      <c r="A40" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="13" t="s">
+      <c r="A40" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="B40" s="14" t="s">
         <v>75</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2215,16 +2289,17 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="13" t="s">
+      <c r="A41" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="B41" s="14" t="s">
         <v>78</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2250,16 +2325,17 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="B42" s="15" t="s">
         <v>81</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2285,20 +2361,21 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="14" t="s">
-        <v>79</v>
+      <c r="A43" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="12"/>
+      <c r="C43" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="13"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="F43" s="13"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -2320,16 +2397,17 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="14" t="s">
+      <c r="A44" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>85</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2355,16 +2433,17 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="14" t="s">
+      <c r="A45" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>87</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2390,16 +2469,17 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="14" t="s">
+      <c r="A46" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>89</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2425,10 +2505,11 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2456,6 +2537,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="2"/>
@@ -2485,10 +2567,2933 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59">
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60">
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61">
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62">
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63">
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64">
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65">
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66">
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67">
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68">
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69">
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70">
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71">
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72">
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73">
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74">
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75">
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76">
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77">
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78">
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79">
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80">
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81">
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82">
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83">
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84">
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85">
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86">
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87">
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88">
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89">
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90">
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91">
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92">
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93">
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94">
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95">
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96">
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97">
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98">
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99">
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100">
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101">
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102">
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103">
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104">
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105">
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106">
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107">
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108">
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109">
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110">
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111">
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112">
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113">
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114">
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115">
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116">
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117">
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118">
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119">
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120">
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121">
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122">
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123">
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124">
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125">
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126">
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127">
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128">
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129">
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130">
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131">
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132">
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133">
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134">
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135">
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136">
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137">
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138">
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139">
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140">
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141">
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142">
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143">
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144">
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145">
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146">
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147">
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148">
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149">
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150">
+      <c r="F150" s="2"/>
+    </row>
+    <row r="151">
+      <c r="F151" s="2"/>
+    </row>
+    <row r="152">
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153">
+      <c r="F153" s="2"/>
+    </row>
+    <row r="154">
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155">
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156">
+      <c r="F156" s="2"/>
+    </row>
+    <row r="157">
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158">
+      <c r="F158" s="2"/>
+    </row>
+    <row r="159">
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160">
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161">
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162">
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163">
+      <c r="F163" s="2"/>
+    </row>
+    <row r="164">
+      <c r="F164" s="2"/>
+    </row>
+    <row r="165">
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166">
+      <c r="F166" s="2"/>
+    </row>
+    <row r="167">
+      <c r="F167" s="2"/>
+    </row>
+    <row r="168">
+      <c r="F168" s="2"/>
+    </row>
+    <row r="169">
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170">
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171">
+      <c r="F171" s="2"/>
+    </row>
+    <row r="172">
+      <c r="F172" s="2"/>
+    </row>
+    <row r="173">
+      <c r="F173" s="2"/>
+    </row>
+    <row r="174">
+      <c r="F174" s="2"/>
+    </row>
+    <row r="175">
+      <c r="F175" s="2"/>
+    </row>
+    <row r="176">
+      <c r="F176" s="2"/>
+    </row>
+    <row r="177">
+      <c r="F177" s="2"/>
+    </row>
+    <row r="178">
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179">
+      <c r="F179" s="2"/>
+    </row>
+    <row r="180">
+      <c r="F180" s="2"/>
+    </row>
+    <row r="181">
+      <c r="F181" s="2"/>
+    </row>
+    <row r="182">
+      <c r="F182" s="2"/>
+    </row>
+    <row r="183">
+      <c r="F183" s="2"/>
+    </row>
+    <row r="184">
+      <c r="F184" s="2"/>
+    </row>
+    <row r="185">
+      <c r="F185" s="2"/>
+    </row>
+    <row r="186">
+      <c r="F186" s="2"/>
+    </row>
+    <row r="187">
+      <c r="F187" s="2"/>
+    </row>
+    <row r="188">
+      <c r="F188" s="2"/>
+    </row>
+    <row r="189">
+      <c r="F189" s="2"/>
+    </row>
+    <row r="190">
+      <c r="F190" s="2"/>
+    </row>
+    <row r="191">
+      <c r="F191" s="2"/>
+    </row>
+    <row r="192">
+      <c r="F192" s="2"/>
+    </row>
+    <row r="193">
+      <c r="F193" s="2"/>
+    </row>
+    <row r="194">
+      <c r="F194" s="2"/>
+    </row>
+    <row r="195">
+      <c r="F195" s="2"/>
+    </row>
+    <row r="196">
+      <c r="F196" s="2"/>
+    </row>
+    <row r="197">
+      <c r="F197" s="2"/>
+    </row>
+    <row r="198">
+      <c r="F198" s="2"/>
+    </row>
+    <row r="199">
+      <c r="F199" s="2"/>
+    </row>
+    <row r="200">
+      <c r="F200" s="2"/>
+    </row>
+    <row r="201">
+      <c r="F201" s="2"/>
+    </row>
+    <row r="202">
+      <c r="F202" s="2"/>
+    </row>
+    <row r="203">
+      <c r="F203" s="2"/>
+    </row>
+    <row r="204">
+      <c r="F204" s="2"/>
+    </row>
+    <row r="205">
+      <c r="F205" s="2"/>
+    </row>
+    <row r="206">
+      <c r="F206" s="2"/>
+    </row>
+    <row r="207">
+      <c r="F207" s="2"/>
+    </row>
+    <row r="208">
+      <c r="F208" s="2"/>
+    </row>
+    <row r="209">
+      <c r="F209" s="2"/>
+    </row>
+    <row r="210">
+      <c r="F210" s="2"/>
+    </row>
+    <row r="211">
+      <c r="F211" s="2"/>
+    </row>
+    <row r="212">
+      <c r="F212" s="2"/>
+    </row>
+    <row r="213">
+      <c r="F213" s="2"/>
+    </row>
+    <row r="214">
+      <c r="F214" s="2"/>
+    </row>
+    <row r="215">
+      <c r="F215" s="2"/>
+    </row>
+    <row r="216">
+      <c r="F216" s="2"/>
+    </row>
+    <row r="217">
+      <c r="F217" s="2"/>
+    </row>
+    <row r="218">
+      <c r="F218" s="2"/>
+    </row>
+    <row r="219">
+      <c r="F219" s="2"/>
+    </row>
+    <row r="220">
+      <c r="F220" s="2"/>
+    </row>
+    <row r="221">
+      <c r="F221" s="2"/>
+    </row>
+    <row r="222">
+      <c r="F222" s="2"/>
+    </row>
+    <row r="223">
+      <c r="F223" s="2"/>
+    </row>
+    <row r="224">
+      <c r="F224" s="2"/>
+    </row>
+    <row r="225">
+      <c r="F225" s="2"/>
+    </row>
+    <row r="226">
+      <c r="F226" s="2"/>
+    </row>
+    <row r="227">
+      <c r="F227" s="2"/>
+    </row>
+    <row r="228">
+      <c r="F228" s="2"/>
+    </row>
+    <row r="229">
+      <c r="F229" s="2"/>
+    </row>
+    <row r="230">
+      <c r="F230" s="2"/>
+    </row>
+    <row r="231">
+      <c r="F231" s="2"/>
+    </row>
+    <row r="232">
+      <c r="F232" s="2"/>
+    </row>
+    <row r="233">
+      <c r="F233" s="2"/>
+    </row>
+    <row r="234">
+      <c r="F234" s="2"/>
+    </row>
+    <row r="235">
+      <c r="F235" s="2"/>
+    </row>
+    <row r="236">
+      <c r="F236" s="2"/>
+    </row>
+    <row r="237">
+      <c r="F237" s="2"/>
+    </row>
+    <row r="238">
+      <c r="F238" s="2"/>
+    </row>
+    <row r="239">
+      <c r="F239" s="2"/>
+    </row>
+    <row r="240">
+      <c r="F240" s="2"/>
+    </row>
+    <row r="241">
+      <c r="F241" s="2"/>
+    </row>
+    <row r="242">
+      <c r="F242" s="2"/>
+    </row>
+    <row r="243">
+      <c r="F243" s="2"/>
+    </row>
+    <row r="244">
+      <c r="F244" s="2"/>
+    </row>
+    <row r="245">
+      <c r="F245" s="2"/>
+    </row>
+    <row r="246">
+      <c r="F246" s="2"/>
+    </row>
+    <row r="247">
+      <c r="F247" s="2"/>
+    </row>
+    <row r="248">
+      <c r="F248" s="2"/>
+    </row>
+    <row r="249">
+      <c r="F249" s="2"/>
+    </row>
+    <row r="250">
+      <c r="F250" s="2"/>
+    </row>
+    <row r="251">
+      <c r="F251" s="2"/>
+    </row>
+    <row r="252">
+      <c r="F252" s="2"/>
+    </row>
+    <row r="253">
+      <c r="F253" s="2"/>
+    </row>
+    <row r="254">
+      <c r="F254" s="2"/>
+    </row>
+    <row r="255">
+      <c r="F255" s="2"/>
+    </row>
+    <row r="256">
+      <c r="F256" s="2"/>
+    </row>
+    <row r="257">
+      <c r="F257" s="2"/>
+    </row>
+    <row r="258">
+      <c r="F258" s="2"/>
+    </row>
+    <row r="259">
+      <c r="F259" s="2"/>
+    </row>
+    <row r="260">
+      <c r="F260" s="2"/>
+    </row>
+    <row r="261">
+      <c r="F261" s="2"/>
+    </row>
+    <row r="262">
+      <c r="F262" s="2"/>
+    </row>
+    <row r="263">
+      <c r="F263" s="2"/>
+    </row>
+    <row r="264">
+      <c r="F264" s="2"/>
+    </row>
+    <row r="265">
+      <c r="F265" s="2"/>
+    </row>
+    <row r="266">
+      <c r="F266" s="2"/>
+    </row>
+    <row r="267">
+      <c r="F267" s="2"/>
+    </row>
+    <row r="268">
+      <c r="F268" s="2"/>
+    </row>
+    <row r="269">
+      <c r="F269" s="2"/>
+    </row>
+    <row r="270">
+      <c r="F270" s="2"/>
+    </row>
+    <row r="271">
+      <c r="F271" s="2"/>
+    </row>
+    <row r="272">
+      <c r="F272" s="2"/>
+    </row>
+    <row r="273">
+      <c r="F273" s="2"/>
+    </row>
+    <row r="274">
+      <c r="F274" s="2"/>
+    </row>
+    <row r="275">
+      <c r="F275" s="2"/>
+    </row>
+    <row r="276">
+      <c r="F276" s="2"/>
+    </row>
+    <row r="277">
+      <c r="F277" s="2"/>
+    </row>
+    <row r="278">
+      <c r="F278" s="2"/>
+    </row>
+    <row r="279">
+      <c r="F279" s="2"/>
+    </row>
+    <row r="280">
+      <c r="F280" s="2"/>
+    </row>
+    <row r="281">
+      <c r="F281" s="2"/>
+    </row>
+    <row r="282">
+      <c r="F282" s="2"/>
+    </row>
+    <row r="283">
+      <c r="F283" s="2"/>
+    </row>
+    <row r="284">
+      <c r="F284" s="2"/>
+    </row>
+    <row r="285">
+      <c r="F285" s="2"/>
+    </row>
+    <row r="286">
+      <c r="F286" s="2"/>
+    </row>
+    <row r="287">
+      <c r="F287" s="2"/>
+    </row>
+    <row r="288">
+      <c r="F288" s="2"/>
+    </row>
+    <row r="289">
+      <c r="F289" s="2"/>
+    </row>
+    <row r="290">
+      <c r="F290" s="2"/>
+    </row>
+    <row r="291">
+      <c r="F291" s="2"/>
+    </row>
+    <row r="292">
+      <c r="F292" s="2"/>
+    </row>
+    <row r="293">
+      <c r="F293" s="2"/>
+    </row>
+    <row r="294">
+      <c r="F294" s="2"/>
+    </row>
+    <row r="295">
+      <c r="F295" s="2"/>
+    </row>
+    <row r="296">
+      <c r="F296" s="2"/>
+    </row>
+    <row r="297">
+      <c r="F297" s="2"/>
+    </row>
+    <row r="298">
+      <c r="F298" s="2"/>
+    </row>
+    <row r="299">
+      <c r="F299" s="2"/>
+    </row>
+    <row r="300">
+      <c r="F300" s="2"/>
+    </row>
+    <row r="301">
+      <c r="F301" s="2"/>
+    </row>
+    <row r="302">
+      <c r="F302" s="2"/>
+    </row>
+    <row r="303">
+      <c r="F303" s="2"/>
+    </row>
+    <row r="304">
+      <c r="F304" s="2"/>
+    </row>
+    <row r="305">
+      <c r="F305" s="2"/>
+    </row>
+    <row r="306">
+      <c r="F306" s="2"/>
+    </row>
+    <row r="307">
+      <c r="F307" s="2"/>
+    </row>
+    <row r="308">
+      <c r="F308" s="2"/>
+    </row>
+    <row r="309">
+      <c r="F309" s="2"/>
+    </row>
+    <row r="310">
+      <c r="F310" s="2"/>
+    </row>
+    <row r="311">
+      <c r="F311" s="2"/>
+    </row>
+    <row r="312">
+      <c r="F312" s="2"/>
+    </row>
+    <row r="313">
+      <c r="F313" s="2"/>
+    </row>
+    <row r="314">
+      <c r="F314" s="2"/>
+    </row>
+    <row r="315">
+      <c r="F315" s="2"/>
+    </row>
+    <row r="316">
+      <c r="F316" s="2"/>
+    </row>
+    <row r="317">
+      <c r="F317" s="2"/>
+    </row>
+    <row r="318">
+      <c r="F318" s="2"/>
+    </row>
+    <row r="319">
+      <c r="F319" s="2"/>
+    </row>
+    <row r="320">
+      <c r="F320" s="2"/>
+    </row>
+    <row r="321">
+      <c r="F321" s="2"/>
+    </row>
+    <row r="322">
+      <c r="F322" s="2"/>
+    </row>
+    <row r="323">
+      <c r="F323" s="2"/>
+    </row>
+    <row r="324">
+      <c r="F324" s="2"/>
+    </row>
+    <row r="325">
+      <c r="F325" s="2"/>
+    </row>
+    <row r="326">
+      <c r="F326" s="2"/>
+    </row>
+    <row r="327">
+      <c r="F327" s="2"/>
+    </row>
+    <row r="328">
+      <c r="F328" s="2"/>
+    </row>
+    <row r="329">
+      <c r="F329" s="2"/>
+    </row>
+    <row r="330">
+      <c r="F330" s="2"/>
+    </row>
+    <row r="331">
+      <c r="F331" s="2"/>
+    </row>
+    <row r="332">
+      <c r="F332" s="2"/>
+    </row>
+    <row r="333">
+      <c r="F333" s="2"/>
+    </row>
+    <row r="334">
+      <c r="F334" s="2"/>
+    </row>
+    <row r="335">
+      <c r="F335" s="2"/>
+    </row>
+    <row r="336">
+      <c r="F336" s="2"/>
+    </row>
+    <row r="337">
+      <c r="F337" s="2"/>
+    </row>
+    <row r="338">
+      <c r="F338" s="2"/>
+    </row>
+    <row r="339">
+      <c r="F339" s="2"/>
+    </row>
+    <row r="340">
+      <c r="F340" s="2"/>
+    </row>
+    <row r="341">
+      <c r="F341" s="2"/>
+    </row>
+    <row r="342">
+      <c r="F342" s="2"/>
+    </row>
+    <row r="343">
+      <c r="F343" s="2"/>
+    </row>
+    <row r="344">
+      <c r="F344" s="2"/>
+    </row>
+    <row r="345">
+      <c r="F345" s="2"/>
+    </row>
+    <row r="346">
+      <c r="F346" s="2"/>
+    </row>
+    <row r="347">
+      <c r="F347" s="2"/>
+    </row>
+    <row r="348">
+      <c r="F348" s="2"/>
+    </row>
+    <row r="349">
+      <c r="F349" s="2"/>
+    </row>
+    <row r="350">
+      <c r="F350" s="2"/>
+    </row>
+    <row r="351">
+      <c r="F351" s="2"/>
+    </row>
+    <row r="352">
+      <c r="F352" s="2"/>
+    </row>
+    <row r="353">
+      <c r="F353" s="2"/>
+    </row>
+    <row r="354">
+      <c r="F354" s="2"/>
+    </row>
+    <row r="355">
+      <c r="F355" s="2"/>
+    </row>
+    <row r="356">
+      <c r="F356" s="2"/>
+    </row>
+    <row r="357">
+      <c r="F357" s="2"/>
+    </row>
+    <row r="358">
+      <c r="F358" s="2"/>
+    </row>
+    <row r="359">
+      <c r="F359" s="2"/>
+    </row>
+    <row r="360">
+      <c r="F360" s="2"/>
+    </row>
+    <row r="361">
+      <c r="F361" s="2"/>
+    </row>
+    <row r="362">
+      <c r="F362" s="2"/>
+    </row>
+    <row r="363">
+      <c r="F363" s="2"/>
+    </row>
+    <row r="364">
+      <c r="F364" s="2"/>
+    </row>
+    <row r="365">
+      <c r="F365" s="2"/>
+    </row>
+    <row r="366">
+      <c r="F366" s="2"/>
+    </row>
+    <row r="367">
+      <c r="F367" s="2"/>
+    </row>
+    <row r="368">
+      <c r="F368" s="2"/>
+    </row>
+    <row r="369">
+      <c r="F369" s="2"/>
+    </row>
+    <row r="370">
+      <c r="F370" s="2"/>
+    </row>
+    <row r="371">
+      <c r="F371" s="2"/>
+    </row>
+    <row r="372">
+      <c r="F372" s="2"/>
+    </row>
+    <row r="373">
+      <c r="F373" s="2"/>
+    </row>
+    <row r="374">
+      <c r="F374" s="2"/>
+    </row>
+    <row r="375">
+      <c r="F375" s="2"/>
+    </row>
+    <row r="376">
+      <c r="F376" s="2"/>
+    </row>
+    <row r="377">
+      <c r="F377" s="2"/>
+    </row>
+    <row r="378">
+      <c r="F378" s="2"/>
+    </row>
+    <row r="379">
+      <c r="F379" s="2"/>
+    </row>
+    <row r="380">
+      <c r="F380" s="2"/>
+    </row>
+    <row r="381">
+      <c r="F381" s="2"/>
+    </row>
+    <row r="382">
+      <c r="F382" s="2"/>
+    </row>
+    <row r="383">
+      <c r="F383" s="2"/>
+    </row>
+    <row r="384">
+      <c r="F384" s="2"/>
+    </row>
+    <row r="385">
+      <c r="F385" s="2"/>
+    </row>
+    <row r="386">
+      <c r="F386" s="2"/>
+    </row>
+    <row r="387">
+      <c r="F387" s="2"/>
+    </row>
+    <row r="388">
+      <c r="F388" s="2"/>
+    </row>
+    <row r="389">
+      <c r="F389" s="2"/>
+    </row>
+    <row r="390">
+      <c r="F390" s="2"/>
+    </row>
+    <row r="391">
+      <c r="F391" s="2"/>
+    </row>
+    <row r="392">
+      <c r="F392" s="2"/>
+    </row>
+    <row r="393">
+      <c r="F393" s="2"/>
+    </row>
+    <row r="394">
+      <c r="F394" s="2"/>
+    </row>
+    <row r="395">
+      <c r="F395" s="2"/>
+    </row>
+    <row r="396">
+      <c r="F396" s="2"/>
+    </row>
+    <row r="397">
+      <c r="F397" s="2"/>
+    </row>
+    <row r="398">
+      <c r="F398" s="2"/>
+    </row>
+    <row r="399">
+      <c r="F399" s="2"/>
+    </row>
+    <row r="400">
+      <c r="F400" s="2"/>
+    </row>
+    <row r="401">
+      <c r="F401" s="2"/>
+    </row>
+    <row r="402">
+      <c r="F402" s="2"/>
+    </row>
+    <row r="403">
+      <c r="F403" s="2"/>
+    </row>
+    <row r="404">
+      <c r="F404" s="2"/>
+    </row>
+    <row r="405">
+      <c r="F405" s="2"/>
+    </row>
+    <row r="406">
+      <c r="F406" s="2"/>
+    </row>
+    <row r="407">
+      <c r="F407" s="2"/>
+    </row>
+    <row r="408">
+      <c r="F408" s="2"/>
+    </row>
+    <row r="409">
+      <c r="F409" s="2"/>
+    </row>
+    <row r="410">
+      <c r="F410" s="2"/>
+    </row>
+    <row r="411">
+      <c r="F411" s="2"/>
+    </row>
+    <row r="412">
+      <c r="F412" s="2"/>
+    </row>
+    <row r="413">
+      <c r="F413" s="2"/>
+    </row>
+    <row r="414">
+      <c r="F414" s="2"/>
+    </row>
+    <row r="415">
+      <c r="F415" s="2"/>
+    </row>
+    <row r="416">
+      <c r="F416" s="2"/>
+    </row>
+    <row r="417">
+      <c r="F417" s="2"/>
+    </row>
+    <row r="418">
+      <c r="F418" s="2"/>
+    </row>
+    <row r="419">
+      <c r="F419" s="2"/>
+    </row>
+    <row r="420">
+      <c r="F420" s="2"/>
+    </row>
+    <row r="421">
+      <c r="F421" s="2"/>
+    </row>
+    <row r="422">
+      <c r="F422" s="2"/>
+    </row>
+    <row r="423">
+      <c r="F423" s="2"/>
+    </row>
+    <row r="424">
+      <c r="F424" s="2"/>
+    </row>
+    <row r="425">
+      <c r="F425" s="2"/>
+    </row>
+    <row r="426">
+      <c r="F426" s="2"/>
+    </row>
+    <row r="427">
+      <c r="F427" s="2"/>
+    </row>
+    <row r="428">
+      <c r="F428" s="2"/>
+    </row>
+    <row r="429">
+      <c r="F429" s="2"/>
+    </row>
+    <row r="430">
+      <c r="F430" s="2"/>
+    </row>
+    <row r="431">
+      <c r="F431" s="2"/>
+    </row>
+    <row r="432">
+      <c r="F432" s="2"/>
+    </row>
+    <row r="433">
+      <c r="F433" s="2"/>
+    </row>
+    <row r="434">
+      <c r="F434" s="2"/>
+    </row>
+    <row r="435">
+      <c r="F435" s="2"/>
+    </row>
+    <row r="436">
+      <c r="F436" s="2"/>
+    </row>
+    <row r="437">
+      <c r="F437" s="2"/>
+    </row>
+    <row r="438">
+      <c r="F438" s="2"/>
+    </row>
+    <row r="439">
+      <c r="F439" s="2"/>
+    </row>
+    <row r="440">
+      <c r="F440" s="2"/>
+    </row>
+    <row r="441">
+      <c r="F441" s="2"/>
+    </row>
+    <row r="442">
+      <c r="F442" s="2"/>
+    </row>
+    <row r="443">
+      <c r="F443" s="2"/>
+    </row>
+    <row r="444">
+      <c r="F444" s="2"/>
+    </row>
+    <row r="445">
+      <c r="F445" s="2"/>
+    </row>
+    <row r="446">
+      <c r="F446" s="2"/>
+    </row>
+    <row r="447">
+      <c r="F447" s="2"/>
+    </row>
+    <row r="448">
+      <c r="F448" s="2"/>
+    </row>
+    <row r="449">
+      <c r="F449" s="2"/>
+    </row>
+    <row r="450">
+      <c r="F450" s="2"/>
+    </row>
+    <row r="451">
+      <c r="F451" s="2"/>
+    </row>
+    <row r="452">
+      <c r="F452" s="2"/>
+    </row>
+    <row r="453">
+      <c r="F453" s="2"/>
+    </row>
+    <row r="454">
+      <c r="F454" s="2"/>
+    </row>
+    <row r="455">
+      <c r="F455" s="2"/>
+    </row>
+    <row r="456">
+      <c r="F456" s="2"/>
+    </row>
+    <row r="457">
+      <c r="F457" s="2"/>
+    </row>
+    <row r="458">
+      <c r="F458" s="2"/>
+    </row>
+    <row r="459">
+      <c r="F459" s="2"/>
+    </row>
+    <row r="460">
+      <c r="F460" s="2"/>
+    </row>
+    <row r="461">
+      <c r="F461" s="2"/>
+    </row>
+    <row r="462">
+      <c r="F462" s="2"/>
+    </row>
+    <row r="463">
+      <c r="F463" s="2"/>
+    </row>
+    <row r="464">
+      <c r="F464" s="2"/>
+    </row>
+    <row r="465">
+      <c r="F465" s="2"/>
+    </row>
+    <row r="466">
+      <c r="F466" s="2"/>
+    </row>
+    <row r="467">
+      <c r="F467" s="2"/>
+    </row>
+    <row r="468">
+      <c r="F468" s="2"/>
+    </row>
+    <row r="469">
+      <c r="F469" s="2"/>
+    </row>
+    <row r="470">
+      <c r="F470" s="2"/>
+    </row>
+    <row r="471">
+      <c r="F471" s="2"/>
+    </row>
+    <row r="472">
+      <c r="F472" s="2"/>
+    </row>
+    <row r="473">
+      <c r="F473" s="2"/>
+    </row>
+    <row r="474">
+      <c r="F474" s="2"/>
+    </row>
+    <row r="475">
+      <c r="F475" s="2"/>
+    </row>
+    <row r="476">
+      <c r="F476" s="2"/>
+    </row>
+    <row r="477">
+      <c r="F477" s="2"/>
+    </row>
+    <row r="478">
+      <c r="F478" s="2"/>
+    </row>
+    <row r="479">
+      <c r="F479" s="2"/>
+    </row>
+    <row r="480">
+      <c r="F480" s="2"/>
+    </row>
+    <row r="481">
+      <c r="F481" s="2"/>
+    </row>
+    <row r="482">
+      <c r="F482" s="2"/>
+    </row>
+    <row r="483">
+      <c r="F483" s="2"/>
+    </row>
+    <row r="484">
+      <c r="F484" s="2"/>
+    </row>
+    <row r="485">
+      <c r="F485" s="2"/>
+    </row>
+    <row r="486">
+      <c r="F486" s="2"/>
+    </row>
+    <row r="487">
+      <c r="F487" s="2"/>
+    </row>
+    <row r="488">
+      <c r="F488" s="2"/>
+    </row>
+    <row r="489">
+      <c r="F489" s="2"/>
+    </row>
+    <row r="490">
+      <c r="F490" s="2"/>
+    </row>
+    <row r="491">
+      <c r="F491" s="2"/>
+    </row>
+    <row r="492">
+      <c r="F492" s="2"/>
+    </row>
+    <row r="493">
+      <c r="F493" s="2"/>
+    </row>
+    <row r="494">
+      <c r="F494" s="2"/>
+    </row>
+    <row r="495">
+      <c r="F495" s="2"/>
+    </row>
+    <row r="496">
+      <c r="F496" s="2"/>
+    </row>
+    <row r="497">
+      <c r="F497" s="2"/>
+    </row>
+    <row r="498">
+      <c r="F498" s="2"/>
+    </row>
+    <row r="499">
+      <c r="F499" s="2"/>
+    </row>
+    <row r="500">
+      <c r="F500" s="2"/>
+    </row>
+    <row r="501">
+      <c r="F501" s="2"/>
+    </row>
+    <row r="502">
+      <c r="F502" s="2"/>
+    </row>
+    <row r="503">
+      <c r="F503" s="2"/>
+    </row>
+    <row r="504">
+      <c r="F504" s="2"/>
+    </row>
+    <row r="505">
+      <c r="F505" s="2"/>
+    </row>
+    <row r="506">
+      <c r="F506" s="2"/>
+    </row>
+    <row r="507">
+      <c r="F507" s="2"/>
+    </row>
+    <row r="508">
+      <c r="F508" s="2"/>
+    </row>
+    <row r="509">
+      <c r="F509" s="2"/>
+    </row>
+    <row r="510">
+      <c r="F510" s="2"/>
+    </row>
+    <row r="511">
+      <c r="F511" s="2"/>
+    </row>
+    <row r="512">
+      <c r="F512" s="2"/>
+    </row>
+    <row r="513">
+      <c r="F513" s="2"/>
+    </row>
+    <row r="514">
+      <c r="F514" s="2"/>
+    </row>
+    <row r="515">
+      <c r="F515" s="2"/>
+    </row>
+    <row r="516">
+      <c r="F516" s="2"/>
+    </row>
+    <row r="517">
+      <c r="F517" s="2"/>
+    </row>
+    <row r="518">
+      <c r="F518" s="2"/>
+    </row>
+    <row r="519">
+      <c r="F519" s="2"/>
+    </row>
+    <row r="520">
+      <c r="F520" s="2"/>
+    </row>
+    <row r="521">
+      <c r="F521" s="2"/>
+    </row>
+    <row r="522">
+      <c r="F522" s="2"/>
+    </row>
+    <row r="523">
+      <c r="F523" s="2"/>
+    </row>
+    <row r="524">
+      <c r="F524" s="2"/>
+    </row>
+    <row r="525">
+      <c r="F525" s="2"/>
+    </row>
+    <row r="526">
+      <c r="F526" s="2"/>
+    </row>
+    <row r="527">
+      <c r="F527" s="2"/>
+    </row>
+    <row r="528">
+      <c r="F528" s="2"/>
+    </row>
+    <row r="529">
+      <c r="F529" s="2"/>
+    </row>
+    <row r="530">
+      <c r="F530" s="2"/>
+    </row>
+    <row r="531">
+      <c r="F531" s="2"/>
+    </row>
+    <row r="532">
+      <c r="F532" s="2"/>
+    </row>
+    <row r="533">
+      <c r="F533" s="2"/>
+    </row>
+    <row r="534">
+      <c r="F534" s="2"/>
+    </row>
+    <row r="535">
+      <c r="F535" s="2"/>
+    </row>
+    <row r="536">
+      <c r="F536" s="2"/>
+    </row>
+    <row r="537">
+      <c r="F537" s="2"/>
+    </row>
+    <row r="538">
+      <c r="F538" s="2"/>
+    </row>
+    <row r="539">
+      <c r="F539" s="2"/>
+    </row>
+    <row r="540">
+      <c r="F540" s="2"/>
+    </row>
+    <row r="541">
+      <c r="F541" s="2"/>
+    </row>
+    <row r="542">
+      <c r="F542" s="2"/>
+    </row>
+    <row r="543">
+      <c r="F543" s="2"/>
+    </row>
+    <row r="544">
+      <c r="F544" s="2"/>
+    </row>
+    <row r="545">
+      <c r="F545" s="2"/>
+    </row>
+    <row r="546">
+      <c r="F546" s="2"/>
+    </row>
+    <row r="547">
+      <c r="F547" s="2"/>
+    </row>
+    <row r="548">
+      <c r="F548" s="2"/>
+    </row>
+    <row r="549">
+      <c r="F549" s="2"/>
+    </row>
+    <row r="550">
+      <c r="F550" s="2"/>
+    </row>
+    <row r="551">
+      <c r="F551" s="2"/>
+    </row>
+    <row r="552">
+      <c r="F552" s="2"/>
+    </row>
+    <row r="553">
+      <c r="F553" s="2"/>
+    </row>
+    <row r="554">
+      <c r="F554" s="2"/>
+    </row>
+    <row r="555">
+      <c r="F555" s="2"/>
+    </row>
+    <row r="556">
+      <c r="F556" s="2"/>
+    </row>
+    <row r="557">
+      <c r="F557" s="2"/>
+    </row>
+    <row r="558">
+      <c r="F558" s="2"/>
+    </row>
+    <row r="559">
+      <c r="F559" s="2"/>
+    </row>
+    <row r="560">
+      <c r="F560" s="2"/>
+    </row>
+    <row r="561">
+      <c r="F561" s="2"/>
+    </row>
+    <row r="562">
+      <c r="F562" s="2"/>
+    </row>
+    <row r="563">
+      <c r="F563" s="2"/>
+    </row>
+    <row r="564">
+      <c r="F564" s="2"/>
+    </row>
+    <row r="565">
+      <c r="F565" s="2"/>
+    </row>
+    <row r="566">
+      <c r="F566" s="2"/>
+    </row>
+    <row r="567">
+      <c r="F567" s="2"/>
+    </row>
+    <row r="568">
+      <c r="F568" s="2"/>
+    </row>
+    <row r="569">
+      <c r="F569" s="2"/>
+    </row>
+    <row r="570">
+      <c r="F570" s="2"/>
+    </row>
+    <row r="571">
+      <c r="F571" s="2"/>
+    </row>
+    <row r="572">
+      <c r="F572" s="2"/>
+    </row>
+    <row r="573">
+      <c r="F573" s="2"/>
+    </row>
+    <row r="574">
+      <c r="F574" s="2"/>
+    </row>
+    <row r="575">
+      <c r="F575" s="2"/>
+    </row>
+    <row r="576">
+      <c r="F576" s="2"/>
+    </row>
+    <row r="577">
+      <c r="F577" s="2"/>
+    </row>
+    <row r="578">
+      <c r="F578" s="2"/>
+    </row>
+    <row r="579">
+      <c r="F579" s="2"/>
+    </row>
+    <row r="580">
+      <c r="F580" s="2"/>
+    </row>
+    <row r="581">
+      <c r="F581" s="2"/>
+    </row>
+    <row r="582">
+      <c r="F582" s="2"/>
+    </row>
+    <row r="583">
+      <c r="F583" s="2"/>
+    </row>
+    <row r="584">
+      <c r="F584" s="2"/>
+    </row>
+    <row r="585">
+      <c r="F585" s="2"/>
+    </row>
+    <row r="586">
+      <c r="F586" s="2"/>
+    </row>
+    <row r="587">
+      <c r="F587" s="2"/>
+    </row>
+    <row r="588">
+      <c r="F588" s="2"/>
+    </row>
+    <row r="589">
+      <c r="F589" s="2"/>
+    </row>
+    <row r="590">
+      <c r="F590" s="2"/>
+    </row>
+    <row r="591">
+      <c r="F591" s="2"/>
+    </row>
+    <row r="592">
+      <c r="F592" s="2"/>
+    </row>
+    <row r="593">
+      <c r="F593" s="2"/>
+    </row>
+    <row r="594">
+      <c r="F594" s="2"/>
+    </row>
+    <row r="595">
+      <c r="F595" s="2"/>
+    </row>
+    <row r="596">
+      <c r="F596" s="2"/>
+    </row>
+    <row r="597">
+      <c r="F597" s="2"/>
+    </row>
+    <row r="598">
+      <c r="F598" s="2"/>
+    </row>
+    <row r="599">
+      <c r="F599" s="2"/>
+    </row>
+    <row r="600">
+      <c r="F600" s="2"/>
+    </row>
+    <row r="601">
+      <c r="F601" s="2"/>
+    </row>
+    <row r="602">
+      <c r="F602" s="2"/>
+    </row>
+    <row r="603">
+      <c r="F603" s="2"/>
+    </row>
+    <row r="604">
+      <c r="F604" s="2"/>
+    </row>
+    <row r="605">
+      <c r="F605" s="2"/>
+    </row>
+    <row r="606">
+      <c r="F606" s="2"/>
+    </row>
+    <row r="607">
+      <c r="F607" s="2"/>
+    </row>
+    <row r="608">
+      <c r="F608" s="2"/>
+    </row>
+    <row r="609">
+      <c r="F609" s="2"/>
+    </row>
+    <row r="610">
+      <c r="F610" s="2"/>
+    </row>
+    <row r="611">
+      <c r="F611" s="2"/>
+    </row>
+    <row r="612">
+      <c r="F612" s="2"/>
+    </row>
+    <row r="613">
+      <c r="F613" s="2"/>
+    </row>
+    <row r="614">
+      <c r="F614" s="2"/>
+    </row>
+    <row r="615">
+      <c r="F615" s="2"/>
+    </row>
+    <row r="616">
+      <c r="F616" s="2"/>
+    </row>
+    <row r="617">
+      <c r="F617" s="2"/>
+    </row>
+    <row r="618">
+      <c r="F618" s="2"/>
+    </row>
+    <row r="619">
+      <c r="F619" s="2"/>
+    </row>
+    <row r="620">
+      <c r="F620" s="2"/>
+    </row>
+    <row r="621">
+      <c r="F621" s="2"/>
+    </row>
+    <row r="622">
+      <c r="F622" s="2"/>
+    </row>
+    <row r="623">
+      <c r="F623" s="2"/>
+    </row>
+    <row r="624">
+      <c r="F624" s="2"/>
+    </row>
+    <row r="625">
+      <c r="F625" s="2"/>
+    </row>
+    <row r="626">
+      <c r="F626" s="2"/>
+    </row>
+    <row r="627">
+      <c r="F627" s="2"/>
+    </row>
+    <row r="628">
+      <c r="F628" s="2"/>
+    </row>
+    <row r="629">
+      <c r="F629" s="2"/>
+    </row>
+    <row r="630">
+      <c r="F630" s="2"/>
+    </row>
+    <row r="631">
+      <c r="F631" s="2"/>
+    </row>
+    <row r="632">
+      <c r="F632" s="2"/>
+    </row>
+    <row r="633">
+      <c r="F633" s="2"/>
+    </row>
+    <row r="634">
+      <c r="F634" s="2"/>
+    </row>
+    <row r="635">
+      <c r="F635" s="2"/>
+    </row>
+    <row r="636">
+      <c r="F636" s="2"/>
+    </row>
+    <row r="637">
+      <c r="F637" s="2"/>
+    </row>
+    <row r="638">
+      <c r="F638" s="2"/>
+    </row>
+    <row r="639">
+      <c r="F639" s="2"/>
+    </row>
+    <row r="640">
+      <c r="F640" s="2"/>
+    </row>
+    <row r="641">
+      <c r="F641" s="2"/>
+    </row>
+    <row r="642">
+      <c r="F642" s="2"/>
+    </row>
+    <row r="643">
+      <c r="F643" s="2"/>
+    </row>
+    <row r="644">
+      <c r="F644" s="2"/>
+    </row>
+    <row r="645">
+      <c r="F645" s="2"/>
+    </row>
+    <row r="646">
+      <c r="F646" s="2"/>
+    </row>
+    <row r="647">
+      <c r="F647" s="2"/>
+    </row>
+    <row r="648">
+      <c r="F648" s="2"/>
+    </row>
+    <row r="649">
+      <c r="F649" s="2"/>
+    </row>
+    <row r="650">
+      <c r="F650" s="2"/>
+    </row>
+    <row r="651">
+      <c r="F651" s="2"/>
+    </row>
+    <row r="652">
+      <c r="F652" s="2"/>
+    </row>
+    <row r="653">
+      <c r="F653" s="2"/>
+    </row>
+    <row r="654">
+      <c r="F654" s="2"/>
+    </row>
+    <row r="655">
+      <c r="F655" s="2"/>
+    </row>
+    <row r="656">
+      <c r="F656" s="2"/>
+    </row>
+    <row r="657">
+      <c r="F657" s="2"/>
+    </row>
+    <row r="658">
+      <c r="F658" s="2"/>
+    </row>
+    <row r="659">
+      <c r="F659" s="2"/>
+    </row>
+    <row r="660">
+      <c r="F660" s="2"/>
+    </row>
+    <row r="661">
+      <c r="F661" s="2"/>
+    </row>
+    <row r="662">
+      <c r="F662" s="2"/>
+    </row>
+    <row r="663">
+      <c r="F663" s="2"/>
+    </row>
+    <row r="664">
+      <c r="F664" s="2"/>
+    </row>
+    <row r="665">
+      <c r="F665" s="2"/>
+    </row>
+    <row r="666">
+      <c r="F666" s="2"/>
+    </row>
+    <row r="667">
+      <c r="F667" s="2"/>
+    </row>
+    <row r="668">
+      <c r="F668" s="2"/>
+    </row>
+    <row r="669">
+      <c r="F669" s="2"/>
+    </row>
+    <row r="670">
+      <c r="F670" s="2"/>
+    </row>
+    <row r="671">
+      <c r="F671" s="2"/>
+    </row>
+    <row r="672">
+      <c r="F672" s="2"/>
+    </row>
+    <row r="673">
+      <c r="F673" s="2"/>
+    </row>
+    <row r="674">
+      <c r="F674" s="2"/>
+    </row>
+    <row r="675">
+      <c r="F675" s="2"/>
+    </row>
+    <row r="676">
+      <c r="F676" s="2"/>
+    </row>
+    <row r="677">
+      <c r="F677" s="2"/>
+    </row>
+    <row r="678">
+      <c r="F678" s="2"/>
+    </row>
+    <row r="679">
+      <c r="F679" s="2"/>
+    </row>
+    <row r="680">
+      <c r="F680" s="2"/>
+    </row>
+    <row r="681">
+      <c r="F681" s="2"/>
+    </row>
+    <row r="682">
+      <c r="F682" s="2"/>
+    </row>
+    <row r="683">
+      <c r="F683" s="2"/>
+    </row>
+    <row r="684">
+      <c r="F684" s="2"/>
+    </row>
+    <row r="685">
+      <c r="F685" s="2"/>
+    </row>
+    <row r="686">
+      <c r="F686" s="2"/>
+    </row>
+    <row r="687">
+      <c r="F687" s="2"/>
+    </row>
+    <row r="688">
+      <c r="F688" s="2"/>
+    </row>
+    <row r="689">
+      <c r="F689" s="2"/>
+    </row>
+    <row r="690">
+      <c r="F690" s="2"/>
+    </row>
+    <row r="691">
+      <c r="F691" s="2"/>
+    </row>
+    <row r="692">
+      <c r="F692" s="2"/>
+    </row>
+    <row r="693">
+      <c r="F693" s="2"/>
+    </row>
+    <row r="694">
+      <c r="F694" s="2"/>
+    </row>
+    <row r="695">
+      <c r="F695" s="2"/>
+    </row>
+    <row r="696">
+      <c r="F696" s="2"/>
+    </row>
+    <row r="697">
+      <c r="F697" s="2"/>
+    </row>
+    <row r="698">
+      <c r="F698" s="2"/>
+    </row>
+    <row r="699">
+      <c r="F699" s="2"/>
+    </row>
+    <row r="700">
+      <c r="F700" s="2"/>
+    </row>
+    <row r="701">
+      <c r="F701" s="2"/>
+    </row>
+    <row r="702">
+      <c r="F702" s="2"/>
+    </row>
+    <row r="703">
+      <c r="F703" s="2"/>
+    </row>
+    <row r="704">
+      <c r="F704" s="2"/>
+    </row>
+    <row r="705">
+      <c r="F705" s="2"/>
+    </row>
+    <row r="706">
+      <c r="F706" s="2"/>
+    </row>
+    <row r="707">
+      <c r="F707" s="2"/>
+    </row>
+    <row r="708">
+      <c r="F708" s="2"/>
+    </row>
+    <row r="709">
+      <c r="F709" s="2"/>
+    </row>
+    <row r="710">
+      <c r="F710" s="2"/>
+    </row>
+    <row r="711">
+      <c r="F711" s="2"/>
+    </row>
+    <row r="712">
+      <c r="F712" s="2"/>
+    </row>
+    <row r="713">
+      <c r="F713" s="2"/>
+    </row>
+    <row r="714">
+      <c r="F714" s="2"/>
+    </row>
+    <row r="715">
+      <c r="F715" s="2"/>
+    </row>
+    <row r="716">
+      <c r="F716" s="2"/>
+    </row>
+    <row r="717">
+      <c r="F717" s="2"/>
+    </row>
+    <row r="718">
+      <c r="F718" s="2"/>
+    </row>
+    <row r="719">
+      <c r="F719" s="2"/>
+    </row>
+    <row r="720">
+      <c r="F720" s="2"/>
+    </row>
+    <row r="721">
+      <c r="F721" s="2"/>
+    </row>
+    <row r="722">
+      <c r="F722" s="2"/>
+    </row>
+    <row r="723">
+      <c r="F723" s="2"/>
+    </row>
+    <row r="724">
+      <c r="F724" s="2"/>
+    </row>
+    <row r="725">
+      <c r="F725" s="2"/>
+    </row>
+    <row r="726">
+      <c r="F726" s="2"/>
+    </row>
+    <row r="727">
+      <c r="F727" s="2"/>
+    </row>
+    <row r="728">
+      <c r="F728" s="2"/>
+    </row>
+    <row r="729">
+      <c r="F729" s="2"/>
+    </row>
+    <row r="730">
+      <c r="F730" s="2"/>
+    </row>
+    <row r="731">
+      <c r="F731" s="2"/>
+    </row>
+    <row r="732">
+      <c r="F732" s="2"/>
+    </row>
+    <row r="733">
+      <c r="F733" s="2"/>
+    </row>
+    <row r="734">
+      <c r="F734" s="2"/>
+    </row>
+    <row r="735">
+      <c r="F735" s="2"/>
+    </row>
+    <row r="736">
+      <c r="F736" s="2"/>
+    </row>
+    <row r="737">
+      <c r="F737" s="2"/>
+    </row>
+    <row r="738">
+      <c r="F738" s="2"/>
+    </row>
+    <row r="739">
+      <c r="F739" s="2"/>
+    </row>
+    <row r="740">
+      <c r="F740" s="2"/>
+    </row>
+    <row r="741">
+      <c r="F741" s="2"/>
+    </row>
+    <row r="742">
+      <c r="F742" s="2"/>
+    </row>
+    <row r="743">
+      <c r="F743" s="2"/>
+    </row>
+    <row r="744">
+      <c r="F744" s="2"/>
+    </row>
+    <row r="745">
+      <c r="F745" s="2"/>
+    </row>
+    <row r="746">
+      <c r="F746" s="2"/>
+    </row>
+    <row r="747">
+      <c r="F747" s="2"/>
+    </row>
+    <row r="748">
+      <c r="F748" s="2"/>
+    </row>
+    <row r="749">
+      <c r="F749" s="2"/>
+    </row>
+    <row r="750">
+      <c r="F750" s="2"/>
+    </row>
+    <row r="751">
+      <c r="F751" s="2"/>
+    </row>
+    <row r="752">
+      <c r="F752" s="2"/>
+    </row>
+    <row r="753">
+      <c r="F753" s="2"/>
+    </row>
+    <row r="754">
+      <c r="F754" s="2"/>
+    </row>
+    <row r="755">
+      <c r="F755" s="2"/>
+    </row>
+    <row r="756">
+      <c r="F756" s="2"/>
+    </row>
+    <row r="757">
+      <c r="F757" s="2"/>
+    </row>
+    <row r="758">
+      <c r="F758" s="2"/>
+    </row>
+    <row r="759">
+      <c r="F759" s="2"/>
+    </row>
+    <row r="760">
+      <c r="F760" s="2"/>
+    </row>
+    <row r="761">
+      <c r="F761" s="2"/>
+    </row>
+    <row r="762">
+      <c r="F762" s="2"/>
+    </row>
+    <row r="763">
+      <c r="F763" s="2"/>
+    </row>
+    <row r="764">
+      <c r="F764" s="2"/>
+    </row>
+    <row r="765">
+      <c r="F765" s="2"/>
+    </row>
+    <row r="766">
+      <c r="F766" s="2"/>
+    </row>
+    <row r="767">
+      <c r="F767" s="2"/>
+    </row>
+    <row r="768">
+      <c r="F768" s="2"/>
+    </row>
+    <row r="769">
+      <c r="F769" s="2"/>
+    </row>
+    <row r="770">
+      <c r="F770" s="2"/>
+    </row>
+    <row r="771">
+      <c r="F771" s="2"/>
+    </row>
+    <row r="772">
+      <c r="F772" s="2"/>
+    </row>
+    <row r="773">
+      <c r="F773" s="2"/>
+    </row>
+    <row r="774">
+      <c r="F774" s="2"/>
+    </row>
+    <row r="775">
+      <c r="F775" s="2"/>
+    </row>
+    <row r="776">
+      <c r="F776" s="2"/>
+    </row>
+    <row r="777">
+      <c r="F777" s="2"/>
+    </row>
+    <row r="778">
+      <c r="F778" s="2"/>
+    </row>
+    <row r="779">
+      <c r="F779" s="2"/>
+    </row>
+    <row r="780">
+      <c r="F780" s="2"/>
+    </row>
+    <row r="781">
+      <c r="F781" s="2"/>
+    </row>
+    <row r="782">
+      <c r="F782" s="2"/>
+    </row>
+    <row r="783">
+      <c r="F783" s="2"/>
+    </row>
+    <row r="784">
+      <c r="F784" s="2"/>
+    </row>
+    <row r="785">
+      <c r="F785" s="2"/>
+    </row>
+    <row r="786">
+      <c r="F786" s="2"/>
+    </row>
+    <row r="787">
+      <c r="F787" s="2"/>
+    </row>
+    <row r="788">
+      <c r="F788" s="2"/>
+    </row>
+    <row r="789">
+      <c r="F789" s="2"/>
+    </row>
+    <row r="790">
+      <c r="F790" s="2"/>
+    </row>
+    <row r="791">
+      <c r="F791" s="2"/>
+    </row>
+    <row r="792">
+      <c r="F792" s="2"/>
+    </row>
+    <row r="793">
+      <c r="F793" s="2"/>
+    </row>
+    <row r="794">
+      <c r="F794" s="2"/>
+    </row>
+    <row r="795">
+      <c r="F795" s="2"/>
+    </row>
+    <row r="796">
+      <c r="F796" s="2"/>
+    </row>
+    <row r="797">
+      <c r="F797" s="2"/>
+    </row>
+    <row r="798">
+      <c r="F798" s="2"/>
+    </row>
+    <row r="799">
+      <c r="F799" s="2"/>
+    </row>
+    <row r="800">
+      <c r="F800" s="2"/>
+    </row>
+    <row r="801">
+      <c r="F801" s="2"/>
+    </row>
+    <row r="802">
+      <c r="F802" s="2"/>
+    </row>
+    <row r="803">
+      <c r="F803" s="2"/>
+    </row>
+    <row r="804">
+      <c r="F804" s="2"/>
+    </row>
+    <row r="805">
+      <c r="F805" s="2"/>
+    </row>
+    <row r="806">
+      <c r="F806" s="2"/>
+    </row>
+    <row r="807">
+      <c r="F807" s="2"/>
+    </row>
+    <row r="808">
+      <c r="F808" s="2"/>
+    </row>
+    <row r="809">
+      <c r="F809" s="2"/>
+    </row>
+    <row r="810">
+      <c r="F810" s="2"/>
+    </row>
+    <row r="811">
+      <c r="F811" s="2"/>
+    </row>
+    <row r="812">
+      <c r="F812" s="2"/>
+    </row>
+    <row r="813">
+      <c r="F813" s="2"/>
+    </row>
+    <row r="814">
+      <c r="F814" s="2"/>
+    </row>
+    <row r="815">
+      <c r="F815" s="2"/>
+    </row>
+    <row r="816">
+      <c r="F816" s="2"/>
+    </row>
+    <row r="817">
+      <c r="F817" s="2"/>
+    </row>
+    <row r="818">
+      <c r="F818" s="2"/>
+    </row>
+    <row r="819">
+      <c r="F819" s="2"/>
+    </row>
+    <row r="820">
+      <c r="F820" s="2"/>
+    </row>
+    <row r="821">
+      <c r="F821" s="2"/>
+    </row>
+    <row r="822">
+      <c r="F822" s="2"/>
+    </row>
+    <row r="823">
+      <c r="F823" s="2"/>
+    </row>
+    <row r="824">
+      <c r="F824" s="2"/>
+    </row>
+    <row r="825">
+      <c r="F825" s="2"/>
+    </row>
+    <row r="826">
+      <c r="F826" s="2"/>
+    </row>
+    <row r="827">
+      <c r="F827" s="2"/>
+    </row>
+    <row r="828">
+      <c r="F828" s="2"/>
+    </row>
+    <row r="829">
+      <c r="F829" s="2"/>
+    </row>
+    <row r="830">
+      <c r="F830" s="2"/>
+    </row>
+    <row r="831">
+      <c r="F831" s="2"/>
+    </row>
+    <row r="832">
+      <c r="F832" s="2"/>
+    </row>
+    <row r="833">
+      <c r="F833" s="2"/>
+    </row>
+    <row r="834">
+      <c r="F834" s="2"/>
+    </row>
+    <row r="835">
+      <c r="F835" s="2"/>
+    </row>
+    <row r="836">
+      <c r="F836" s="2"/>
+    </row>
+    <row r="837">
+      <c r="F837" s="2"/>
+    </row>
+    <row r="838">
+      <c r="F838" s="2"/>
+    </row>
+    <row r="839">
+      <c r="F839" s="2"/>
+    </row>
+    <row r="840">
+      <c r="F840" s="2"/>
+    </row>
+    <row r="841">
+      <c r="F841" s="2"/>
+    </row>
+    <row r="842">
+      <c r="F842" s="2"/>
+    </row>
+    <row r="843">
+      <c r="F843" s="2"/>
+    </row>
+    <row r="844">
+      <c r="F844" s="2"/>
+    </row>
+    <row r="845">
+      <c r="F845" s="2"/>
+    </row>
+    <row r="846">
+      <c r="F846" s="2"/>
+    </row>
+    <row r="847">
+      <c r="F847" s="2"/>
+    </row>
+    <row r="848">
+      <c r="F848" s="2"/>
+    </row>
+    <row r="849">
+      <c r="F849" s="2"/>
+    </row>
+    <row r="850">
+      <c r="F850" s="2"/>
+    </row>
+    <row r="851">
+      <c r="F851" s="2"/>
+    </row>
+    <row r="852">
+      <c r="F852" s="2"/>
+    </row>
+    <row r="853">
+      <c r="F853" s="2"/>
+    </row>
+    <row r="854">
+      <c r="F854" s="2"/>
+    </row>
+    <row r="855">
+      <c r="F855" s="2"/>
+    </row>
+    <row r="856">
+      <c r="F856" s="2"/>
+    </row>
+    <row r="857">
+      <c r="F857" s="2"/>
+    </row>
+    <row r="858">
+      <c r="F858" s="2"/>
+    </row>
+    <row r="859">
+      <c r="F859" s="2"/>
+    </row>
+    <row r="860">
+      <c r="F860" s="2"/>
+    </row>
+    <row r="861">
+      <c r="F861" s="2"/>
+    </row>
+    <row r="862">
+      <c r="F862" s="2"/>
+    </row>
+    <row r="863">
+      <c r="F863" s="2"/>
+    </row>
+    <row r="864">
+      <c r="F864" s="2"/>
+    </row>
+    <row r="865">
+      <c r="F865" s="2"/>
+    </row>
+    <row r="866">
+      <c r="F866" s="2"/>
+    </row>
+    <row r="867">
+      <c r="F867" s="2"/>
+    </row>
+    <row r="868">
+      <c r="F868" s="2"/>
+    </row>
+    <row r="869">
+      <c r="F869" s="2"/>
+    </row>
+    <row r="870">
+      <c r="F870" s="2"/>
+    </row>
+    <row r="871">
+      <c r="F871" s="2"/>
+    </row>
+    <row r="872">
+      <c r="F872" s="2"/>
+    </row>
+    <row r="873">
+      <c r="F873" s="2"/>
+    </row>
+    <row r="874">
+      <c r="F874" s="2"/>
+    </row>
+    <row r="875">
+      <c r="F875" s="2"/>
+    </row>
+    <row r="876">
+      <c r="F876" s="2"/>
+    </row>
+    <row r="877">
+      <c r="F877" s="2"/>
+    </row>
+    <row r="878">
+      <c r="F878" s="2"/>
+    </row>
+    <row r="879">
+      <c r="F879" s="2"/>
+    </row>
+    <row r="880">
+      <c r="F880" s="2"/>
+    </row>
+    <row r="881">
+      <c r="F881" s="2"/>
+    </row>
+    <row r="882">
+      <c r="F882" s="2"/>
+    </row>
+    <row r="883">
+      <c r="F883" s="2"/>
+    </row>
+    <row r="884">
+      <c r="F884" s="2"/>
+    </row>
+    <row r="885">
+      <c r="F885" s="2"/>
+    </row>
+    <row r="886">
+      <c r="F886" s="2"/>
+    </row>
+    <row r="887">
+      <c r="F887" s="2"/>
+    </row>
+    <row r="888">
+      <c r="F888" s="2"/>
+    </row>
+    <row r="889">
+      <c r="F889" s="2"/>
+    </row>
+    <row r="890">
+      <c r="F890" s="2"/>
+    </row>
+    <row r="891">
+      <c r="F891" s="2"/>
+    </row>
+    <row r="892">
+      <c r="F892" s="2"/>
+    </row>
+    <row r="893">
+      <c r="F893" s="2"/>
+    </row>
+    <row r="894">
+      <c r="F894" s="2"/>
+    </row>
+    <row r="895">
+      <c r="F895" s="2"/>
+    </row>
+    <row r="896">
+      <c r="F896" s="2"/>
+    </row>
+    <row r="897">
+      <c r="F897" s="2"/>
+    </row>
+    <row r="898">
+      <c r="F898" s="2"/>
+    </row>
+    <row r="899">
+      <c r="F899" s="2"/>
+    </row>
+    <row r="900">
+      <c r="F900" s="2"/>
+    </row>
+    <row r="901">
+      <c r="F901" s="2"/>
+    </row>
+    <row r="902">
+      <c r="F902" s="2"/>
+    </row>
+    <row r="903">
+      <c r="F903" s="2"/>
+    </row>
+    <row r="904">
+      <c r="F904" s="2"/>
+    </row>
+    <row r="905">
+      <c r="F905" s="2"/>
+    </row>
+    <row r="906">
+      <c r="F906" s="2"/>
+    </row>
+    <row r="907">
+      <c r="F907" s="2"/>
+    </row>
+    <row r="908">
+      <c r="F908" s="2"/>
+    </row>
+    <row r="909">
+      <c r="F909" s="2"/>
+    </row>
+    <row r="910">
+      <c r="F910" s="2"/>
+    </row>
+    <row r="911">
+      <c r="F911" s="2"/>
+    </row>
+    <row r="912">
+      <c r="F912" s="2"/>
+    </row>
+    <row r="913">
+      <c r="F913" s="2"/>
+    </row>
+    <row r="914">
+      <c r="F914" s="2"/>
+    </row>
+    <row r="915">
+      <c r="F915" s="2"/>
+    </row>
+    <row r="916">
+      <c r="F916" s="2"/>
+    </row>
+    <row r="917">
+      <c r="F917" s="2"/>
+    </row>
+    <row r="918">
+      <c r="F918" s="2"/>
+    </row>
+    <row r="919">
+      <c r="F919" s="2"/>
+    </row>
+    <row r="920">
+      <c r="F920" s="2"/>
+    </row>
+    <row r="921">
+      <c r="F921" s="2"/>
+    </row>
+    <row r="922">
+      <c r="F922" s="2"/>
+    </row>
+    <row r="923">
+      <c r="F923" s="2"/>
+    </row>
+    <row r="924">
+      <c r="F924" s="2"/>
+    </row>
+    <row r="925">
+      <c r="F925" s="2"/>
+    </row>
+    <row r="926">
+      <c r="F926" s="2"/>
+    </row>
+    <row r="927">
+      <c r="F927" s="2"/>
+    </row>
+    <row r="928">
+      <c r="F928" s="2"/>
+    </row>
+    <row r="929">
+      <c r="F929" s="2"/>
+    </row>
+    <row r="930">
+      <c r="F930" s="2"/>
+    </row>
+    <row r="931">
+      <c r="F931" s="2"/>
+    </row>
+    <row r="932">
+      <c r="F932" s="2"/>
+    </row>
+    <row r="933">
+      <c r="F933" s="2"/>
+    </row>
+    <row r="934">
+      <c r="F934" s="2"/>
+    </row>
+    <row r="935">
+      <c r="F935" s="2"/>
+    </row>
+    <row r="936">
+      <c r="F936" s="2"/>
+    </row>
+    <row r="937">
+      <c r="F937" s="2"/>
+    </row>
+    <row r="938">
+      <c r="F938" s="2"/>
+    </row>
+    <row r="939">
+      <c r="F939" s="2"/>
+    </row>
+    <row r="940">
+      <c r="F940" s="2"/>
+    </row>
+    <row r="941">
+      <c r="F941" s="2"/>
+    </row>
+    <row r="942">
+      <c r="F942" s="2"/>
+    </row>
+    <row r="943">
+      <c r="F943" s="2"/>
+    </row>
+    <row r="944">
+      <c r="F944" s="2"/>
+    </row>
+    <row r="945">
+      <c r="F945" s="2"/>
+    </row>
+    <row r="946">
+      <c r="F946" s="2"/>
+    </row>
+    <row r="947">
+      <c r="F947" s="2"/>
+    </row>
+    <row r="948">
+      <c r="F948" s="2"/>
+    </row>
+    <row r="949">
+      <c r="F949" s="2"/>
+    </row>
+    <row r="950">
+      <c r="F950" s="2"/>
+    </row>
+    <row r="951">
+      <c r="F951" s="2"/>
+    </row>
+    <row r="952">
+      <c r="F952" s="2"/>
+    </row>
+    <row r="953">
+      <c r="F953" s="2"/>
+    </row>
+    <row r="954">
+      <c r="F954" s="2"/>
+    </row>
+    <row r="955">
+      <c r="F955" s="2"/>
+    </row>
+    <row r="956">
+      <c r="F956" s="2"/>
+    </row>
+    <row r="957">
+      <c r="F957" s="2"/>
+    </row>
+    <row r="958">
+      <c r="F958" s="2"/>
+    </row>
+    <row r="959">
+      <c r="F959" s="2"/>
+    </row>
+    <row r="960">
+      <c r="F960" s="2"/>
+    </row>
+    <row r="961">
+      <c r="F961" s="2"/>
+    </row>
+    <row r="962">
+      <c r="F962" s="2"/>
+    </row>
+    <row r="963">
+      <c r="F963" s="2"/>
+    </row>
+    <row r="964">
+      <c r="F964" s="2"/>
+    </row>
+    <row r="965">
+      <c r="F965" s="2"/>
+    </row>
+    <row r="966">
+      <c r="F966" s="2"/>
+    </row>
+    <row r="967">
+      <c r="F967" s="2"/>
+    </row>
+    <row r="968">
+      <c r="F968" s="2"/>
+    </row>
+    <row r="969">
+      <c r="F969" s="2"/>
+    </row>
+    <row r="970">
+      <c r="F970" s="2"/>
+    </row>
+    <row r="971">
+      <c r="F971" s="2"/>
+    </row>
+    <row r="972">
+      <c r="F972" s="2"/>
+    </row>
+    <row r="973">
+      <c r="F973" s="2"/>
+    </row>
+    <row r="974">
+      <c r="F974" s="2"/>
+    </row>
+    <row r="975">
+      <c r="F975" s="2"/>
+    </row>
+    <row r="976">
+      <c r="F976" s="2"/>
+    </row>
+    <row r="977">
+      <c r="F977" s="2"/>
+    </row>
+    <row r="978">
+      <c r="F978" s="2"/>
+    </row>
+    <row r="979">
+      <c r="F979" s="2"/>
+    </row>
+    <row r="980">
+      <c r="F980" s="2"/>
+    </row>
+    <row r="981">
+      <c r="F981" s="2"/>
+    </row>
+    <row r="982">
+      <c r="F982" s="2"/>
+    </row>
+    <row r="983">
+      <c r="F983" s="2"/>
+    </row>
+    <row r="984">
+      <c r="F984" s="2"/>
+    </row>
+    <row r="985">
+      <c r="F985" s="2"/>
+    </row>
+    <row r="986">
+      <c r="F986" s="2"/>
+    </row>
+    <row r="987">
+      <c r="F987" s="2"/>
+    </row>
+    <row r="988">
+      <c r="F988" s="2"/>
+    </row>
+    <row r="989">
+      <c r="F989" s="2"/>
+    </row>
+    <row r="990">
+      <c r="F990" s="2"/>
+    </row>
+    <row r="991">
+      <c r="F991" s="2"/>
+    </row>
+    <row r="992">
+      <c r="F992" s="2"/>
+    </row>
+    <row r="993">
+      <c r="F993" s="2"/>
+    </row>
+    <row r="994">
+      <c r="F994" s="2"/>
+    </row>
+    <row r="995">
+      <c r="F995" s="2"/>
+    </row>
+    <row r="996">
+      <c r="F996" s="2"/>
+    </row>
+    <row r="997">
+      <c r="F997" s="2"/>
+    </row>
+    <row r="998">
+      <c r="F998" s="2"/>
+    </row>
+    <row r="999">
+      <c r="F999" s="2"/>
+    </row>
+    <row r="1000">
+      <c r="F1000" s="2"/>
+    </row>
+    <row r="1001">
+      <c r="F1001" s="2"/>
+    </row>
+    <row r="1002">
+      <c r="F1002" s="2"/>
+    </row>
+    <row r="1003">
+      <c r="F1003" s="2"/>
+    </row>
+    <row r="1004">
+      <c r="F1004" s="2"/>
+    </row>
+    <row r="1005">
+      <c r="F1005" s="2"/>
+    </row>
+    <row r="1006">
+      <c r="F1006" s="2"/>
+    </row>
+    <row r="1007">
+      <c r="F1007" s="2"/>
+    </row>
+    <row r="1008">
+      <c r="F1008" s="2"/>
+    </row>
+    <row r="1009">
+      <c r="F1009" s="2"/>
+    </row>
+    <row r="1010">
+      <c r="F1010" s="2"/>
+    </row>
+    <row r="1011">
+      <c r="F1011" s="2"/>
+    </row>
+    <row r="1012">
+      <c r="F1012" s="2"/>
+    </row>
+    <row r="1013">
+      <c r="F1013" s="2"/>
+    </row>
+    <row r="1014">
+      <c r="F1014" s="2"/>
+    </row>
+    <row r="1015">
+      <c r="F1015" s="2"/>
+    </row>
+    <row r="1016">
+      <c r="F1016" s="2"/>
+    </row>
+    <row r="1017">
+      <c r="F1017" s="2"/>
+    </row>
+    <row r="1018">
+      <c r="F1018" s="2"/>
+    </row>
+    <row r="1019">
+      <c r="F1019" s="2"/>
+    </row>
+    <row r="1020">
+      <c r="F1020" s="2"/>
+    </row>
+    <row r="1021">
+      <c r="F1021" s="2"/>
+    </row>
+    <row r="1022">
+      <c r="F1022" s="2"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D39">
+    <dataValidation type="list" allowBlank="1" sqref="D39 F39">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2508,7 +5513,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2541,58 +5546,58 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>93</v>
       </c>
+      <c r="C2" s="20" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="A3" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>95</v>
       </c>
+      <c r="C3" s="20" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="A4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>97</v>
       </c>
+      <c r="C4" s="20" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="A5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>99</v>
       </c>
+      <c r="C5" s="20" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="A6" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>101</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2615,48 +5620,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>108</v>
       </c>
+      <c r="G1" s="22" t="s">
+        <v>109</v>
+      </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="23" t="str">
+      <c r="A2" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="24" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-09-21_09-33</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="24" t="s">
+        <v>2024-10-29_20-45</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24" t="s">
+      <c r="E2" s="3" t="s">
         <v>112</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="H2" s="2"/>
     </row>
